--- a/data_12.xlsx
+++ b/data_12.xlsx
@@ -109,16 +109,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>6.2204156878873285</v>
+        <v>6.206266615378446</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09242548636033976</v>
+        <v>0.09307359654719512</v>
       </c>
       <c r="D2" t="n">
-        <v>5.729179721372134</v>
+        <v>5.738995709127096</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2260020566639878</v>
+        <v>0.22641185058478439</v>
       </c>
       <c r="F2" t="n">
         <v>0.04702956043538678</v>
@@ -132,7 +132,7 @@
         <v>8.949820322818022</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2607208124847546</v>
+        <v>0.26053462852745185</v>
       </c>
       <c r="D3" t="n">
         <v>9.248182583205976</v>
@@ -152,7 +152,7 @@
         <v>9.38978603635939</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6468537011549056</v>
+        <v>0.646391774925353</v>
       </c>
       <c r="D4" t="n">
         <v>10.7134405002876</v>
